--- a/plan/excel/item_道具表.xlsx
+++ b/plan/excel/item_道具表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="4" r:id="rId1"/>
+    <sheet name="脚本ID说明" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemProto!$A$1:$A$4</definedName>
@@ -19,9 +20,87 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>具体脚本</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>意义与选择请参考</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">sheet </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>脚本</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>说明</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -46,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -102,30 +181,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>石头</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>水</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>品质</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -192,10 +247,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>sid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>param1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -221,6 +272,105 @@
   </si>
   <si>
     <t>type_s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄经验丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP经验丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#资源、积分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否使用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>usable</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金大礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#普通道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_111</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_222</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_333</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>script_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +421,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,7 +457,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -316,7 +473,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,20 +759,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -623,31 +782,37 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,31 +820,37 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -687,276 +858,257 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>4001</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>4002</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4003</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>4103</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4004</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>4104</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4005</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>4105</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4006</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4007</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -967,54 +1119,27 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4008</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>4009</v>
+        <v>4106</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1031,22 +1156,23 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>4010</v>
+        <v>4107</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1063,22 +1189,23 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>4011</v>
+        <v>4108</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1095,22 +1222,23 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>4012</v>
+        <v>4109</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2"/>
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1125,6 +1253,108 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>4110</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>4111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4112</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
     </row>
@@ -1134,4 +1364,17 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/excel/item_道具表.xlsx
+++ b/plan/excel/item_道具表.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -371,6 +371,26 @@
   </si>
   <si>
     <t>script_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>印度神油</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>诛仙令</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假条</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -759,11 +779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1132,7 +1152,7 @@
         <v>4106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13">
@@ -1165,7 +1185,7 @@
         <v>4107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14">
@@ -1198,7 +1218,7 @@
         <v>4108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15">
@@ -1231,7 +1251,7 @@
         <v>4109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16">
@@ -1264,7 +1284,7 @@
         <v>4110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17">
@@ -1289,72 +1309,6 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>4111</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>4112</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
         <v>0</v>
       </c>
     </row>

--- a/plan/excel/item_道具表.xlsx
+++ b/plan/excel/item_道具表.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="H1" authorId="0" shapeId="0">
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -783,7 +783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD19"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1131,13 +1131,13 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K11">
         <v>0</v>

--- a/plan/excel/item_道具表.xlsx
+++ b/plan/excel/item_道具表.xlsx
@@ -20,10 +20,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -392,6 +392,67 @@
   <si>
     <t>减免券</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CON</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/item/item_4001.png</t>
+  </si>
+  <si>
+    <t>icon/item/item_4002.png</t>
+  </si>
+  <si>
+    <t>icon/item/item_4106.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/item/item_4107.png</t>
+  </si>
+  <si>
+    <t>icon/item/item_4108.png</t>
+  </si>
+  <si>
+    <t>icon/item/item_4109.png</t>
+  </si>
+  <si>
+    <t>icon/item/item_4110.png</t>
+  </si>
+  <si>
+    <t>icon/item/item_4103.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/item/item_4104.png</t>
+  </si>
+  <si>
+    <t>icon/item/item_4105.png</t>
   </si>
 </sst>
 </file>
@@ -477,7 +538,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -493,7 +554,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -779,22 +840,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -802,37 +865,40 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -840,37 +906,40 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -878,37 +947,40 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -916,10 +988,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -928,25 +1000,28 @@
         <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -960,8 +1035,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4001</v>
       </c>
@@ -969,16 +1045,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -992,11 +1068,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4002</v>
       </c>
@@ -1004,16 +1083,16 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1030,15 +1109,19 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4103</v>
       </c>
@@ -1046,16 +1129,16 @@
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1072,8 +1155,11 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4104</v>
       </c>
@@ -1081,22 +1167,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1107,8 +1193,11 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4105</v>
       </c>
@@ -1116,53 +1205,57 @@
         <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>4001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>999</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>4106</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13">
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1179,23 +1272,26 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4107</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14">
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1212,23 +1308,26 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4108</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15">
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1245,23 +1344,26 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4109</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16">
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1278,23 +1380,26 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4110</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17">
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17">
         <v>5</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1309,6 +1414,9 @@
         <v>0</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>0</v>
       </c>
     </row>

--- a/plan/excel/item_道具表.xlsx
+++ b/plan/excel/item_道具表.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -453,6 +453,22 @@
   </si>
   <si>
     <t>icon/item/item_4105.png</t>
+  </si>
+  <si>
+    <t>精炼符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级精炼符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/item/item_4111.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/item/item_4112.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -840,11 +856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1417,6 +1433,78 @@
         <v>0</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>4111</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>4112</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>0</v>
       </c>
     </row>

--- a/plan/excel/item_道具表.xlsx
+++ b/plan/excel/item_道具表.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -468,6 +468,14 @@
   </si>
   <si>
     <t>icon/item/item_4112.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/item/item_4113.png</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -856,11 +864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,6 +1513,41 @@
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>4113</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>0</v>
       </c>
     </row>

--- a/plan/excel/item_道具表.xlsx
+++ b/plan/excel/item_道具表.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="4" r:id="rId1"/>
-    <sheet name="脚本ID说明" sheetId="5" r:id="rId2"/>
+    <sheet name="使用类型说明 " sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemProto!$A$1:$A$4</definedName>
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>脚本ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>参数1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -314,18 +310,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>能否使用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>usable</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金大礼包</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -363,14 +347,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>script_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -476,6 +452,69 @@
   </si>
   <si>
     <t>icon/item/item_4113.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_type</t>
+  </si>
+  <si>
+    <t>使用类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>为英雄加经验</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置参数1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置参数2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置参数3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置参数4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行参数1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲加的经验值量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -864,11 +903,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -877,11 +916,11 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -889,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -904,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>11</v>
@@ -913,16 +952,13 @@
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -930,10 +966,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -945,25 +981,22 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -971,25 +1004,25 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>48</v>
+      <c r="H3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
@@ -1000,54 +1033,48 @@
       <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1059,20 +1086,19 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4001</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1092,25 +1118,22 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4002</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1133,30 +1156,27 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1179,22 +1199,19 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1206,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1217,22 +1234,19 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>4105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1247,32 +1261,29 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4001</v>
       </c>
       <c r="J11">
-        <v>4001</v>
+        <v>999</v>
       </c>
       <c r="K11">
-        <v>999</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>4106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13">
@@ -1296,19 +1307,16 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14">
@@ -1332,19 +1340,16 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15">
@@ -1368,19 +1373,16 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16">
@@ -1404,19 +1406,16 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17">
@@ -1440,19 +1439,16 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18">
@@ -1476,19 +1472,16 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19">
@@ -1512,19 +1505,16 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1536,18 +1526,15 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J20">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
         <v>0</v>
       </c>
     </row>
@@ -1561,12 +1548,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/plan/excel/item_道具表.xlsx
+++ b/plan/excel/item_道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ItemProto" sheetId="4" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -515,6 +515,10 @@
   </si>
   <si>
     <t>英雄ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃用2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -905,9 +909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1526,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1000</v>
@@ -1550,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1606,8 +1610,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>

--- a/plan/excel/item_道具表.xlsx
+++ b/plan/excel/item_道具表.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemProto" sheetId="4" r:id="rId1"/>
+    <sheet name="Item" sheetId="4" r:id="rId1"/>
     <sheet name="使用类型说明 " sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ItemProto!$A$1:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Item!$A$1:$A$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -909,9 +909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1554,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
